--- a/src/main/webapp/static/excel/excelTemplate/njTemplate.xlsx
+++ b/src/main/webapp/static/excel/excelTemplate/njTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="22368" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
-    <t>部门拟建政务信息系统调查表（审计统计表）</t>
+    <t>部门拟建政务信息系统调查表</t>
   </si>
   <si>
     <t>序号</t>
@@ -216,8 +216,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -247,6 +247,127 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -255,14 +376,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -271,119 +384,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -411,13 +411,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,7 +489,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,13 +537,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,43 +573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,78 +586,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,6 +684,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,6 +714,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,56 +779,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
@@ -802,145 +802,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1353,21 +1353,21 @@
   </sheetPr>
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="8.88333333333333" style="1"/>
-    <col min="2" max="2" width="12.2166666666667" style="1" customWidth="1"/>
-    <col min="3" max="6" width="8.88333333333333" style="1"/>
-    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
-    <col min="8" max="14" width="8.88333333333333" style="1"/>
+    <col min="1" max="1" width="8.87962962962963" style="1"/>
+    <col min="2" max="2" width="12.212962962963" style="1" customWidth="1"/>
+    <col min="3" max="6" width="8.87962962962963" style="1"/>
+    <col min="7" max="7" width="10.8796296296296" style="1" customWidth="1"/>
+    <col min="8" max="14" width="8.87962962962963" style="1"/>
     <col min="15" max="15" width="12.6666666666667" style="1"/>
-    <col min="16" max="17" width="8.88333333333333" style="1"/>
-    <col min="18" max="18" width="22.4416666666667" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88333333333333" style="1"/>
+    <col min="16" max="17" width="8.87962962962963" style="1"/>
+    <col min="18" max="18" width="22.4444444444444" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.87962962962963" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="67.5" customHeight="1" spans="1:21">
@@ -1395,7 +1395,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" customHeight="1"/>
+    <row r="2" ht="13.5" customHeight="1"/>
     <row r="3" ht="17.4" customHeight="1" spans="1:21">
       <c r="A3" s="3" t="s">
         <v>1</v>
@@ -1674,7 +1674,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1690,7 +1690,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/main/webapp/static/excel/excelTemplate/njTemplate.xlsx
+++ b/src/main/webapp/static/excel/excelTemplate/njTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9924"/>
+    <workbookView windowWidth="15015" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <oleSize ref="A1:U6"/>
 </workbook>
 </file>
 
@@ -247,8 +248,107 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -262,47 +362,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -316,30 +378,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -347,43 +385,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -411,181 +412,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,6 +685,87 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,36 +785,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -743,57 +795,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -802,145 +803,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1353,21 +1354,21 @@
   </sheetPr>
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="8.87962962962963" style="1"/>
-    <col min="2" max="2" width="12.212962962963" style="1" customWidth="1"/>
-    <col min="3" max="6" width="8.87962962962963" style="1"/>
-    <col min="7" max="7" width="10.8796296296296" style="1" customWidth="1"/>
-    <col min="8" max="14" width="8.87962962962963" style="1"/>
+    <col min="1" max="1" width="8.88333333333333" style="1"/>
+    <col min="2" max="2" width="12.2166666666667" style="1" customWidth="1"/>
+    <col min="3" max="6" width="8.88333333333333" style="1"/>
+    <col min="7" max="7" width="10.8833333333333" style="1" customWidth="1"/>
+    <col min="8" max="14" width="8.88333333333333" style="1"/>
     <col min="15" max="15" width="12.6666666666667" style="1"/>
-    <col min="16" max="17" width="8.87962962962963" style="1"/>
-    <col min="18" max="18" width="22.4444444444444" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.87962962962963" style="1"/>
+    <col min="16" max="17" width="8.88333333333333" style="1"/>
+    <col min="18" max="18" width="22.4416666666667" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="67.5" customHeight="1" spans="1:21">
@@ -1395,7 +1396,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1"/>
+    <row r="2" customHeight="1"/>
     <row r="3" ht="17.4" customHeight="1" spans="1:21">
       <c r="A3" s="3" t="s">
         <v>1</v>
@@ -1646,16 +1647,16 @@
     <mergeCell ref="U3:U5"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5 I3:I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3">
       <formula1>"财政资金,专项资金,自筹资金"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5 J3:J4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3">
       <formula1>"已到位,未到位"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5 K3:K4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3">
       <formula1>"自建（自有产权）,购买服务（无产权）"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5 O3:O4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1674,7 +1675,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1690,7 +1691,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/main/webapp/static/excel/excelTemplate/njTemplate.xlsx
+++ b/src/main/webapp/static/excel/excelTemplate/njTemplate.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15015" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22416" windowHeight="7596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1:U6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>部门拟建政务信息系统调查表</t>
   </si>
@@ -33,6 +33,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统名称</t>
@@ -47,6 +48,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>基本信息</t>
@@ -67,6 +69,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>审批时间</t>
@@ -78,6 +81,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>业务功能</t>
@@ -101,6 +105,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>联系人</t>
@@ -112,6 +117,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>联系电话</t>
@@ -123,6 +129,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统类别</t>
@@ -209,18 +216,54 @@
   <si>
     <t>remarks</t>
   </si>
+  <si>
+    <t>是否脱密处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ftmcl</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估使用对象详细说明</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gsydxxxsm</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +275,7 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -239,159 +283,39 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
+      <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,198 +324,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799981688894314"/>
+        <fgColor theme="3" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -688,376 +432,93 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FF0000"/>
-      <color rgb="00FCD5B4"/>
-      <color rgb="00C5D9F1"/>
-      <color rgb="00000000"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFFCD5B4"/>
+      <color rgb="FFC5D9F1"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1344,291 +805,321 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88333333333333" style="1"/>
-    <col min="2" max="2" width="12.2166666666667" style="1" customWidth="1"/>
-    <col min="3" max="6" width="8.88333333333333" style="1"/>
-    <col min="7" max="7" width="10.8833333333333" style="1" customWidth="1"/>
-    <col min="8" max="14" width="8.88333333333333" style="1"/>
-    <col min="15" max="15" width="12.6666666666667" style="1"/>
-    <col min="16" max="17" width="8.88333333333333" style="1"/>
-    <col min="18" max="18" width="22.4416666666667" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88333333333333" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="12.21875" style="1" customWidth="1"/>
+    <col min="3" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="10.88671875" style="1" customWidth="1"/>
+    <col min="9" max="15" width="8.88671875" style="1"/>
+    <col min="16" max="16" width="12.6640625" style="1"/>
+    <col min="17" max="18" width="8.88671875" style="1"/>
+    <col min="19" max="19" width="22.44140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" style="1"/>
+    <col min="21" max="21" width="14.88671875" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="67.5" customHeight="1" spans="1:21">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:23" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
     </row>
-    <row r="2" customHeight="1"/>
-    <row r="3" ht="17.4" customHeight="1" spans="1:21">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:23" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="10" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="14" t="s">
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="17.4" customHeight="1" spans="1:21">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:23" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="S4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="T4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="U4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="15"/>
+      <c r="W4" s="15"/>
     </row>
-    <row r="5" ht="17.4" customHeight="1" spans="1:21">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:23" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="L5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="N5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="O5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="P5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="Q5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="R5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="S5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="T5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="8"/>
-      <c r="U5" s="15"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="15"/>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="L6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="M6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="N6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="O6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="P6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="Q6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="R6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="S6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="T6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="U6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="W6" s="2" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="O3:T3"/>
+  <mergeCells count="26">
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="P3:V3"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
@@ -1638,62 +1129,49 @@
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U3:U5"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"财政资金,专项资金,自筹资金"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"已到位,未到位"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"自建（自有产权）,购买服务（无产权）"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="62" orientation="landscape" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/webapp/static/excel/excelTemplate/njTemplate.xlsx
+++ b/src/main/webapp/static/excel/excelTemplate/njTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9924"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="拟建信息系统模板" sheetId="1" r:id="rId1"/>
@@ -1075,10 +1075,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1159,14 +1159,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1187,45 +1180,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1249,8 +1203,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1264,32 +1281,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1328,49 +1328,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,7 +1352,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1400,61 +1484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1466,43 +1502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1569,21 +1569,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1594,26 +1579,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1665,6 +1630,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1673,10 +1673,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1685,137 +1685,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1831,6 +1831,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1843,6 +1846,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1856,6 +1862,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2246,7 +2255,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -2302,222 +2311,219 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="18" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="20" t="s">
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="35" customHeight="1" spans="1:22">
-      <c r="A3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="9" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="U3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="21"/>
+      <c r="V3" s="24"/>
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:22">
-      <c r="A4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="21"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="24"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="T5" s="17" t="s">
+      <c r="T5" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="U5" s="16" t="s">
+      <c r="U5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="V5" s="16" t="s">
+      <c r="V5" s="19" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="O2:U2"/>
+    <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>

--- a/src/main/webapp/static/excel/excelTemplate/njTemplate.xlsx
+++ b/src/main/webapp/static/excel/excelTemplate/njTemplate.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17616" windowHeight="5268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="拟建信息系统模板" sheetId="1" r:id="rId1"/>
     <sheet name="下拉选框附页" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <oleSize ref="A1:U6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="299">
   <si>
     <t>单位名称
 （必填）</t>
@@ -109,7 +109,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>/</t>
     </r>
@@ -153,7 +153,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>/</t>
     </r>
@@ -173,7 +173,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -282,9 +282,6 @@
     <t>spbm</t>
   </si>
   <si>
-    <t>spsj</t>
-  </si>
-  <si>
     <t>ywgn</t>
   </si>
   <si>
@@ -1069,18 +1066,16 @@
   <si>
     <t>珠海市路桥管理处</t>
   </si>
+  <si>
+    <t>spsj</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1122,7 +1117,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1148,151 +1143,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1306,8 +1157,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1316,198 +1173,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799951170384838"/>
+        <fgColor theme="3" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1567,271 +1244,56 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1840,124 +1302,71 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FF0000"/>
-      <color rgb="00FCD5B4"/>
-      <color rgb="00C5D9F1"/>
-      <color rgb="00000000"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFFCD5B4"/>
+      <color rgb="FFC5D9F1"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2244,278 +1653,279 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.212962962963" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.87962962962963" style="1"/>
-    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.87962962962963" style="1"/>
-    <col min="6" max="6" width="16.1296296296296" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.8796296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="27"/>
+    <col min="6" max="6" width="16.109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="12" width="8.87962962962963" style="1"/>
-    <col min="13" max="13" width="13.3796296296296" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.87962962962963" style="1"/>
-    <col min="15" max="15" width="12.6666666666667" style="1"/>
-    <col min="16" max="16" width="13.8796296296296" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.87962962962963" style="1"/>
-    <col min="18" max="18" width="22.4444444444444" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.75" style="1" customWidth="1"/>
-    <col min="20" max="20" width="14.8796296296296" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.75" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.87962962962963" style="1"/>
+    <col min="9" max="12" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="13.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="12.6640625" style="1"/>
+    <col min="16" max="16" width="13.88671875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="22.44140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.77734375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.88671875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.77734375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.8" spans="1:22">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-    </row>
-    <row r="2" ht="24" customHeight="1" spans="1:22">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:22" ht="25.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+    </row>
+    <row r="2" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="21" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="23" t="s">
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="35" customHeight="1" spans="1:22">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11" t="s">
+    <row r="3" spans="1:22" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="24"/>
-    </row>
-    <row r="4" ht="35" customHeight="1" spans="1:22">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18" t="s">
+      <c r="V3" s="10"/>
+    </row>
+    <row r="4" spans="1:22" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="7" t="s">
         <v>32</v>
       </c>
       <c r="P4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="S4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="24"/>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="19" t="s">
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="10"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="K5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="L5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="M5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="N5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="O5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="P5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="Q5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="R5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="S5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="T5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T5" s="20" t="s">
+      <c r="U5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="V5" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="V5" s="19" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2536,1270 +1946,1266 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V2:V4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V2:V4"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"财政资金,专项资金,自筹资金"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"已到位,未到位"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"自建（自有产权）,购买服务（无产权）"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="62" orientation="landscape"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
-        <v>298</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>